--- a/BANKS.xlsx
+++ b/BANKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pux/Desktop/PROJECT 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasre\Rutgers\DCR-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{374205AE-3411-7B43-A631-807436E86084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D2AA82-DB63-4B2F-8764-76D0D63CEDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13540" xr2:uid="{D8457FAB-2ACF-AB4B-BA78-47A338B51C65}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D8457FAB-2ACF-AB4B-BA78-47A338B51C65}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>ABA Number (PK)</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -111,13 +108,16 @@
   </si>
   <si>
     <t>021000018</t>
+  </si>
+  <si>
+    <t>ABA_Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,11 +127,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,20 +177,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -198,9 +203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -238,7 +243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -344,7 +349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -497,10 +502,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -508,107 +513,111 @@
     <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15262</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>124085260</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2">
-        <v>15262</v>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>84111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>124085260</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2">
-        <v>84111</v>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>55402</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2">
-        <v>55402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A5 F5" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/BANKS.xlsx
+++ b/BANKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasre\Rutgers\DCR-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D2AA82-DB63-4B2F-8764-76D0D63CEDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAFB1F6-8E7E-4BD5-9D67-02D300FB392B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D8457FAB-2ACF-AB4B-BA78-47A338B51C65}"/>
   </bookViews>
@@ -502,7 +502,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
